--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\jss\freie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A950F060-38CE-4420-882D-532E3D4F22A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B055229-A4FB-494A-BB96-4A354A18AD44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{700A38E4-60BE-4DBD-94DA-89B639D5A89B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{700A38E4-60BE-4DBD-94DA-89B639D5A89B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$K$55</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="279">
   <si>
     <t>Bärner Bär</t>
   </si>
@@ -353,6 +356,360 @@
     <t>inkl. Fotos</t>
   </si>
   <si>
+    <t>Anteil an Unterkunft und Übersetzer</t>
+  </si>
+  <si>
+    <t>pro Zeile + Pauschale für Extraaufwand</t>
+  </si>
+  <si>
+    <t>Auslandreise, Artikel mehrmals angepasst</t>
+  </si>
+  <si>
+    <t>Landbote</t>
+  </si>
+  <si>
+    <t>2015-2017</t>
+  </si>
+  <si>
+    <t>meist Auftragsarbeiten</t>
+  </si>
+  <si>
+    <t>Tagblatt der Stadt Zürich</t>
+  </si>
+  <si>
+    <t>200.- pro Seite/ 400.- für Doppelseite</t>
+  </si>
+  <si>
+    <t>beides</t>
+  </si>
+  <si>
+    <t>Rundschau (Effingermedien)</t>
+  </si>
+  <si>
+    <t>100-140</t>
+  </si>
+  <si>
+    <t>Meistens Besuch eines Anlasses oder Interview, Zeitaufwand inkl. schreiben ca. 4 Stunden</t>
+  </si>
+  <si>
+    <t>Wilerzeitung</t>
+  </si>
+  <si>
+    <t>Lokal</t>
+  </si>
+  <si>
+    <t>Autospesen 0.70Fr./km</t>
+  </si>
+  <si>
+    <t>tagesaktueller Bericht</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>Kultur</t>
+  </si>
+  <si>
+    <t>pro Zeichen</t>
+  </si>
+  <si>
+    <t>4500 Zeichen</t>
+  </si>
+  <si>
+    <t>Stadtkultur</t>
+  </si>
+  <si>
+    <t>Z Magazin (NZZ)</t>
+  </si>
+  <si>
+    <t>9000 Zeichen</t>
+  </si>
+  <si>
+    <t>Stil Magazin (NZZ)</t>
+  </si>
+  <si>
+    <t>Auslandsreise, 3 Tage Aufwand</t>
+  </si>
+  <si>
+    <t>inkl. Zweitverwertung online</t>
+  </si>
+  <si>
+    <t>Toggenburger Zeitung</t>
+  </si>
+  <si>
+    <t>3000-4000 Zeichen</t>
+  </si>
+  <si>
+    <t>es gibt immer 200 Franken, egal wie gross der Aufwand ist. </t>
+  </si>
+  <si>
+    <t>Zürichsee Zeitung</t>
+  </si>
+  <si>
+    <t>Meist handelt es sich um Nachberichterstattungen kultureller Anlässe</t>
+  </si>
+  <si>
+    <t>Obersee Nachrichten</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Fokus</t>
+  </si>
+  <si>
+    <t>inklusive Strassenumfrage (4 Teilnehmer, mit Foto)</t>
+  </si>
+  <si>
+    <t>Anzeiger aus dem Bezirk Affoltern</t>
+  </si>
+  <si>
+    <t>pro Zeile 1 Franken, pro Bild 50 Franken</t>
+  </si>
+  <si>
+    <t>pro Zeichen /pro Stunde</t>
+  </si>
+  <si>
+    <t>Radio SRF2 Kultur</t>
+  </si>
+  <si>
+    <t>Aktualität</t>
+  </si>
+  <si>
+    <t>3.30-4 Minuten</t>
+  </si>
+  <si>
+    <t>Basler Zeitung</t>
+  </si>
+  <si>
+    <t>Binninger Anzeiger</t>
+  </si>
+  <si>
+    <t>4200 Zeichen</t>
+  </si>
+  <si>
+    <t>Migros Magazin</t>
+  </si>
+  <si>
+    <t>AHV/IV, EO und PK</t>
+  </si>
+  <si>
+    <t> Reportage in anderem Kanton mit Interviews und thematischer Vorrecherche</t>
+  </si>
+  <si>
+    <t>Investigative Recherche mit mehreren Interviewpartnern, im Laufe einer Woche erarbeitet</t>
+  </si>
+  <si>
+    <t>übernimmt Spesen wie Zug in der Regel</t>
+  </si>
+  <si>
+    <t>5000 Zeichen</t>
+  </si>
+  <si>
+    <t>aufwändige Recherche und mehrere Interviews</t>
+  </si>
+  <si>
+    <t>Buchrezension und Interview mit dem Autor</t>
+  </si>
+  <si>
+    <t>SRG SSR</t>
+  </si>
+  <si>
+    <t>RTS Temps présent</t>
+  </si>
+  <si>
+    <t>AHV, ALV, EO und IV</t>
+  </si>
+  <si>
+    <t>mehrtägiger Rechercheauftrag für einen Dokumentarfilm</t>
+  </si>
+  <si>
+    <t>Zug und Verpflegung</t>
+  </si>
+  <si>
+    <t>3000-4500 Zeichen</t>
+  </si>
+  <si>
+    <t>Aufwändige Porträts mit Lektüre, Treffen der Autoren und Videointerview zusammen mit Keystone. Die Artikel und das Keystone-Video können theoretisch in allen Medien erscheinen, die das Angebot der SDA abonniert haben. Zweitverwertungs-Honorar gibt es folglich nicht. Ist aber nicht unbedingt repräsentativ für die ganze SDA oder das Kulturressort, weil diese Literatur-Reihe von der Gottlieb und Hans Vogt-Stiftung mit einem Medienförderungsbeitrag unterstützt wird.</t>
+  </si>
+  <si>
+    <t>Nachlese</t>
+  </si>
+  <si>
+    <t>2500 Zeichen</t>
+  </si>
+  <si>
+    <t>Der Beobachter hat grundsätzlich Tageshonorare von um die 500 Franken. </t>
+  </si>
+  <si>
+    <t>Freiburger Nachrichten</t>
+  </si>
+  <si>
+    <t>2500-3000 Zeichen</t>
+  </si>
+  <si>
+    <t>Es handelt sich um Kritiken. Gleiches Honorar für unterschiedliche Länge. Jeweils Besuch der Kulturveranstaltung (Theater, Ausstellung etc.) mit Vorrecherche</t>
+  </si>
+  <si>
+    <t>ja (Kaffee während Interview)</t>
+  </si>
+  <si>
+    <t>Besuch einer Abendveranstaltung, ein Interview mit dem Leiter und Interviews mit Teilnehmenden. Dafür gab es etwas mehr (20 Fr.) als die übliche Pauschale von 200 Fr.</t>
+  </si>
+  <si>
+    <t>041 – Das Kulturmagazin</t>
+  </si>
+  <si>
+    <t>Infrastrukturpauschale von 40.- pro Tag</t>
+  </si>
+  <si>
+    <t>Tagesansatz (500 + 40 Infrastrukturpauschale)</t>
+  </si>
+  <si>
+    <t>14700 Zeichen</t>
+  </si>
+  <si>
+    <t>Aufwand genau erfasst: 125 Stunden (ca. halber Monat)</t>
+  </si>
+  <si>
+    <t>12900 Zeichen</t>
+  </si>
+  <si>
+    <t>Aufwand 75 Stunden (9 Tage)</t>
+  </si>
+  <si>
+    <t>12000 Zeichen</t>
+  </si>
+  <si>
+    <t>Mein Rekordhonorar. hat intern für krach gesorgt. Ich weiss, aus erster Hand, dass sie das heute nicht mehr zahlen. 140 Stunden Aufwand. (17 Tage)</t>
+  </si>
+  <si>
+    <t>Aufwand 13 Stunden</t>
+  </si>
+  <si>
+    <t>13300 Zeichen</t>
+  </si>
+  <si>
+    <t>bei der NZZ (Gesellschaft) erhielt ich, egal wie viel Aufwand, für einen Auftrag immer 1500.</t>
+  </si>
+  <si>
+    <t>Lokal, Inland, Sport, Vermischtes</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>pro Tag (400)</t>
+  </si>
+  <si>
+    <t>zusätzliches Fixum pro Monat von 400.-, egal wie viel ich schrieb, Teil meiner "Anstellung" als fester freier Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Freizeitsport</t>
+  </si>
+  <si>
+    <t>3500-4000 Zeichen</t>
+  </si>
+  <si>
+    <t>6600 Zeichen</t>
+  </si>
+  <si>
+    <t>Schweizer Journalist</t>
+  </si>
+  <si>
+    <t>7500 Zeichen</t>
+  </si>
+  <si>
+    <t>ZEIT Schweiz</t>
+  </si>
+  <si>
+    <t>AHV, ALV, PK</t>
+  </si>
+  <si>
+    <t>Reisekosten</t>
+  </si>
+  <si>
+    <t>unterschiedlich</t>
+  </si>
+  <si>
+    <t>Drei Tage Aufwand</t>
+  </si>
+  <si>
+    <t>Zentralressort (Abschlussredaktion)</t>
+  </si>
+  <si>
+    <t>40 Franken pro Stunde</t>
+  </si>
+  <si>
+    <t>Redigier- und Layoutarbeit</t>
+  </si>
+  <si>
+    <t>Oltner Stadtanzeiger</t>
+  </si>
+  <si>
+    <t>Im Gespräch / Stadt / Rückblick</t>
+  </si>
+  <si>
+    <t>AHV/IV, ALV, NBUV, PK</t>
+  </si>
+  <si>
+    <t>4500-5000 Zeichen</t>
+  </si>
+  <si>
+    <t>circa 4 Stunden Aufwand (exkl. An- und Rückreise)</t>
+  </si>
+  <si>
+    <t>Bezirk Horgen</t>
+  </si>
+  <si>
+    <t>AHV, ALV, NBU</t>
+  </si>
+  <si>
+    <t>Tagesaktueller Bericht. Ganzer Vormittag vor Ort, von Nachmittag bis Abend am Schreiben.</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>tagesaktueller Bericht, wurde ohne zusätzliche Entschädigung zweitverwertet. Das liegt an der Zusammenführung der Tamedia-Sportredaktionen.</t>
+  </si>
+  <si>
+    <t>Feuilleton</t>
+  </si>
+  <si>
+    <t>Schaffhauser Nachrichten</t>
+  </si>
+  <si>
+    <t>80 Rappen pro Zeile (à 35Z) oder 80 Franken pro Anlass</t>
+  </si>
+  <si>
+    <t>pro Zeile oder pauschal pro Anlass</t>
+  </si>
+  <si>
+    <t>oft kleinere Artikel</t>
+  </si>
+  <si>
+    <t>total Arbeitsaufwand: ca. 10 Stunden</t>
+  </si>
+  <si>
+    <t>weiss nicht mehr</t>
+  </si>
+  <si>
+    <t>14000 Zeichen</t>
+  </si>
+  <si>
+    <t>Auslandreportage mit mehreren Reiseorten</t>
+  </si>
+  <si>
+    <t>thurgaukultur.ch</t>
+  </si>
+  <si>
+    <t>Honorare für Textbeiträge sind pauschal 200 Franken, kein zusätzliches Honorar für eigene Bilder</t>
+  </si>
+  <si>
+    <t>Edito</t>
+  </si>
+  <si>
     <t>medium</t>
   </si>
   <si>
@@ -377,7 +734,142 @@
     <t>zeichen</t>
   </si>
   <si>
+    <t>auftrag</t>
+  </si>
+  <si>
     <t>infos</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>nzz</t>
+  </si>
+  <si>
+    <t>baernerbaer</t>
+  </si>
+  <si>
+    <t>beobachter</t>
+  </si>
+  <si>
+    <t>bernerzeitung</t>
+  </si>
+  <si>
+    <t>bielertagblatt</t>
+  </si>
+  <si>
+    <t>bzbasel</t>
+  </si>
+  <si>
+    <t>dasmagazin</t>
+  </si>
+  <si>
+    <t>derbund</t>
+  </si>
+  <si>
+    <t>landbote</t>
+  </si>
+  <si>
+    <t>medienwoche</t>
+  </si>
+  <si>
+    <t>schweizerfamilie</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>nzzas</t>
+  </si>
+  <si>
+    <t>tierwelt</t>
+  </si>
+  <si>
+    <t>woz</t>
+  </si>
+  <si>
+    <t>sobli</t>
+  </si>
+  <si>
+    <t>swi</t>
+  </si>
+  <si>
+    <t>tagi</t>
+  </si>
+  <si>
+    <t>vice</t>
+  </si>
+  <si>
+    <t>tablattzuerich</t>
+  </si>
+  <si>
+    <t>wilerzeitung</t>
+  </si>
+  <si>
+    <t>effingermedien</t>
+  </si>
+  <si>
+    <t>anzeigeraffoltern</t>
+  </si>
+  <si>
+    <t>baz</t>
+  </si>
+  <si>
+    <t>binningeranzeiger</t>
+  </si>
+  <si>
+    <t>edito</t>
+  </si>
+  <si>
+    <t>freiburgernachrichten</t>
+  </si>
+  <si>
+    <t>migrosmagazin</t>
+  </si>
+  <si>
+    <t>oberseenachrichten</t>
+  </si>
+  <si>
+    <t>oltnerstadtanzeiger</t>
+  </si>
+  <si>
+    <t>schaffhausernachrichten</t>
+  </si>
+  <si>
+    <t>schweizerjournalist</t>
+  </si>
+  <si>
+    <t>srf2kultur</t>
+  </si>
+  <si>
+    <t>srg</t>
+  </si>
+  <si>
+    <t>stil</t>
+  </si>
+  <si>
+    <t>thurgaukultur</t>
+  </si>
+  <si>
+    <t>toz</t>
+  </si>
+  <si>
+    <t>zmagazin</t>
+  </si>
+  <si>
+    <t>diezeit</t>
+  </si>
+  <si>
+    <t>zuerichseezeitung</t>
+  </si>
+  <si>
+    <t>041</t>
   </si>
 </sst>
 </file>
@@ -399,15 +891,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -415,13 +913,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -736,114 +1258,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC54E270-1ABF-479A-8E8B-51ED23D44172}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>174</v>
       </c>
       <c r="C2">
         <v>2018</v>
       </c>
       <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
         <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2018</v>
-      </c>
-      <c r="D3">
-        <v>180</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -851,185 +1391,182 @@
       <c r="D4">
         <v>300</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D5">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D6">
         <v>500</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
-      <c r="D7">
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
         <v>300</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>2016</v>
-      </c>
-      <c r="D8">
-        <v>1500</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
-        <v>18</v>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C9">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="D10">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1054,228 +1591,261 @@
       <c r="J11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12">
+        <v>3000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13">
+        <v>3000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14">
         <v>2017</v>
       </c>
-      <c r="D12">
-        <v>250</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2018</v>
-      </c>
-      <c r="D13">
-        <v>500</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14">
-        <v>2016</v>
-      </c>
       <c r="D14">
-        <v>3000</v>
+        <v>540</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" t="s">
         <v>3</v>
       </c>
+      <c r="H14" t="s">
+        <v>167</v>
+      </c>
       <c r="I14" t="s">
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D15">
-        <v>2000</v>
+        <v>3780</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>176</v>
+      </c>
+      <c r="H15" t="s">
+        <v>177</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D16">
-        <v>700</v>
+        <v>3240</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D17">
-        <v>200</v>
+        <v>4860</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>2016</v>
+      </c>
+      <c r="D18">
+        <v>540</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2015</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>400</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>2018</v>
-      </c>
-      <c r="D19">
-        <v>800</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1303,86 +1873,89 @@
       <c r="J20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>2015</v>
+      </c>
+      <c r="D21">
+        <v>400</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
-      </c>
-      <c r="C21">
-        <v>2018</v>
-      </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
       </c>
       <c r="C22">
         <v>2017</v>
       </c>
       <c r="D22">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="C23">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D23">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>
@@ -1390,187 +1963,235 @@
       <c r="G23" t="s">
         <v>3</v>
       </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
       <c r="I23" t="s">
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C24">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D24">
-        <v>1800</v>
+        <v>350</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
       </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
       </c>
       <c r="C25">
-        <v>2018</v>
-      </c>
-      <c r="D25">
-        <v>400</v>
+        <v>2017</v>
+      </c>
+      <c r="D25" s="2">
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="G25" t="s">
         <v>3</v>
       </c>
+      <c r="H25" t="s">
+        <v>156</v>
+      </c>
       <c r="I25" t="s">
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C26">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D26">
-        <v>525</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="C27">
         <v>2018</v>
       </c>
       <c r="D27">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
       </c>
       <c r="C28">
         <v>2018</v>
       </c>
       <c r="D28">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C29">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D29">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>2018</v>
       </c>
-      <c r="D30" t="s">
-        <v>75</v>
+      <c r="D30">
+        <v>250</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -1579,258 +2200,297 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>2018</v>
       </c>
       <c r="D31">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
       <c r="C32">
         <v>2018</v>
       </c>
       <c r="D32">
-        <v>1500</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
       </c>
       <c r="C33">
         <v>2018</v>
       </c>
       <c r="D33">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D34">
         <v>3000</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
       <c r="C35">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D35">
         <v>400</v>
       </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
       <c r="G35" t="s">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C36">
         <v>2017</v>
       </c>
       <c r="D36">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
       </c>
-      <c r="H36" t="s">
-        <v>84</v>
-      </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>2018</v>
       </c>
       <c r="D37">
-        <v>1000</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="G37" t="s">
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>2018</v>
       </c>
       <c r="D38">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C39">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D39">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
       </c>
       <c r="C40">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D40">
         <v>400</v>
@@ -1842,33 +2502,48 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>2017</v>
       </c>
       <c r="D41">
         <v>400</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1881,293 +2556,2238 @@
       <c r="D42">
         <v>400</v>
       </c>
-      <c r="E42" t="s">
-        <v>90</v>
+      <c r="F42" t="s">
+        <v>9</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>19</v>
+      <c r="K42" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D43">
-        <v>500</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
+        <v>1500</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>2018</v>
       </c>
-      <c r="D44">
-        <v>500</v>
+      <c r="D44" t="s">
+        <v>75</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
       </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
       <c r="G44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" t="s">
-        <v>72</v>
-      </c>
-      <c r="I44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C45">
         <v>2018</v>
       </c>
       <c r="D45">
-        <v>350</v>
-      </c>
-      <c r="E45" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C46">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D46">
-        <v>1100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
+        <v>450</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C47">
         <v>2018</v>
       </c>
-      <c r="D47">
-        <v>400</v>
+      <c r="D47" t="s">
+        <v>75</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C48">
-        <v>2017</v>
-      </c>
-      <c r="D48">
-        <v>500</v>
+        <v>2018</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="C49">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D49">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
       </c>
-      <c r="J49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
       </c>
       <c r="C50">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D50">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
         <v>31</v>
       </c>
-      <c r="F50" t="s">
-        <v>56</v>
-      </c>
       <c r="G50" t="s">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
       </c>
       <c r="C51">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D51">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E51" t="s">
         <v>31</v>
       </c>
       <c r="F51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>173</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>112</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53">
+        <v>2017</v>
+      </c>
+      <c r="D53">
+        <v>140</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>2018</v>
+      </c>
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>2018</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1050</v>
+      </c>
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>2018</v>
+      </c>
+      <c r="D56">
+        <v>600</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>2018</v>
+      </c>
+      <c r="D57">
+        <v>800</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>2018</v>
+      </c>
+      <c r="D58">
+        <v>200</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59">
+        <v>2017</v>
+      </c>
+      <c r="D59">
+        <v>800</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>2018</v>
+      </c>
+      <c r="D60">
+        <v>500</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>2018</v>
+      </c>
+      <c r="D61">
+        <v>350</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62">
+        <v>2017</v>
+      </c>
+      <c r="D62">
+        <v>400</v>
+      </c>
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>188</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
+      </c>
+      <c r="J62" t="s">
+        <v>189</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>2018</v>
+      </c>
+      <c r="D63">
+        <v>550</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>218</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>2016</v>
+      </c>
+      <c r="D64">
+        <v>1500</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65">
+        <v>2015</v>
+      </c>
+      <c r="D65">
+        <v>2000</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>2017</v>
+      </c>
+      <c r="D66">
+        <v>2000</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>2018</v>
+      </c>
+      <c r="D67">
+        <v>700</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>2018</v>
+      </c>
+      <c r="D68">
+        <v>1200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69">
+        <v>2016</v>
+      </c>
+      <c r="D69">
+        <v>1500</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
         <v>56</v>
       </c>
-      <c r="G51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>184</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>185</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70">
+        <v>2018</v>
+      </c>
+      <c r="D70">
+        <v>600</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>6400</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71">
+        <v>2017</v>
+      </c>
+      <c r="D71">
+        <v>800</v>
+      </c>
+      <c r="E71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72">
+        <v>2018</v>
+      </c>
+      <c r="D72">
+        <v>300</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73">
+        <v>2018</v>
+      </c>
+      <c r="D73">
+        <v>350</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>115</v>
+      </c>
+      <c r="J73" t="s">
+        <v>141</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74">
+        <v>2018</v>
+      </c>
+      <c r="D74">
+        <v>150</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75">
+        <v>2018</v>
+      </c>
+      <c r="D75">
+        <v>400</v>
+      </c>
+      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" t="s">
+        <v>115</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76">
+        <v>2018</v>
+      </c>
+      <c r="D76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77">
+        <v>2018</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+      <c r="G77" t="s">
+        <v>216</v>
+      </c>
+      <c r="H77" t="s">
+        <v>217</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>2018</v>
+      </c>
+      <c r="D78">
+        <v>1500</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>80</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79">
+        <v>2015</v>
+      </c>
+      <c r="D79">
+        <v>800</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" t="s">
+        <v>194</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80">
+        <v>2015</v>
+      </c>
+      <c r="D80">
+        <v>800</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>129</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81">
+        <v>2018</v>
+      </c>
+      <c r="D81">
+        <v>330</v>
+      </c>
+      <c r="F81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H81" t="s">
+        <v>126</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82">
+        <v>2018</v>
+      </c>
+      <c r="D82">
+        <v>780</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s">
+        <v>164</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>165</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83">
+        <v>2018</v>
+      </c>
+      <c r="D83">
+        <v>1800</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>64</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84">
+        <v>2018</v>
+      </c>
+      <c r="D84">
+        <v>1000</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" t="s">
+        <v>86</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85">
+        <v>2018</v>
+      </c>
+      <c r="D85">
+        <v>1950</v>
+      </c>
+      <c r="E85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>162</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86">
+        <v>600</v>
+      </c>
+      <c r="E86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>131</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87">
+        <v>2018</v>
+      </c>
+      <c r="D87">
+        <v>300</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>132</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88">
+        <v>2018</v>
+      </c>
+      <c r="D88">
+        <v>400</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>50</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89">
+        <v>2017</v>
+      </c>
+      <c r="D89">
+        <v>400</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>2018</v>
+      </c>
+      <c r="D90">
+        <v>700</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>2018</v>
+      </c>
+      <c r="D91">
+        <v>200</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>2018</v>
+      </c>
+      <c r="D92">
+        <v>700</v>
+      </c>
+      <c r="E92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" t="s">
+        <v>56</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93">
+        <v>2018</v>
+      </c>
+      <c r="D93">
+        <v>200</v>
+      </c>
+      <c r="G93" t="s">
+        <v>114</v>
+      </c>
+      <c r="I93" t="s">
+        <v>115</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94">
+        <v>2017</v>
+      </c>
+      <c r="D94">
+        <v>500</v>
+      </c>
+      <c r="E94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95">
+        <v>400</v>
+      </c>
+      <c r="E95" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96">
+        <v>2017</v>
+      </c>
+      <c r="D96">
+        <v>800</v>
+      </c>
+      <c r="E96" t="s">
+        <v>196</v>
+      </c>
+      <c r="G96" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97">
+        <v>2018</v>
+      </c>
+      <c r="D97">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>198</v>
+      </c>
+      <c r="I97" t="s">
+        <v>115</v>
+      </c>
+      <c r="J97" t="s">
+        <v>223</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98">
+        <v>2018</v>
+      </c>
+      <c r="D98">
+        <v>600</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99">
+        <v>2018</v>
+      </c>
+      <c r="D99">
+        <v>600</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s">
+        <v>56</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100">
+        <v>2018</v>
+      </c>
+      <c r="D100">
+        <v>200</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>115</v>
+      </c>
+      <c r="J100" t="s">
+        <v>135</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
+        <v>2017</v>
+      </c>
+      <c r="D101">
+        <v>300</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>102</v>
+      </c>
+      <c r="I101" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" t="s">
+        <v>103</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>2017</v>
+      </c>
+      <c r="D102">
+        <v>250</v>
+      </c>
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" t="s">
+        <v>56</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>104</v>
+      </c>
+      <c r="I102" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>2017</v>
+      </c>
+      <c r="D103">
+        <v>250</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
         <v>105</v>
       </c>
-      <c r="I51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="I103" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>101</v>
       </c>
-      <c r="C52">
+      <c r="C104">
         <v>2017</v>
       </c>
-      <c r="D52">
+      <c r="D104">
         <v>450</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E104" t="s">
         <v>31</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F104" t="s">
         <v>56</v>
       </c>
-      <c r="G52" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" t="s">
         <v>82</v>
       </c>
-      <c r="I52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s">
         <v>106</v>
       </c>
+      <c r="K104" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105">
+        <v>2018</v>
+      </c>
+      <c r="D105">
+        <v>150</v>
+      </c>
+      <c r="F105" t="s">
+        <v>121</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" t="s">
+        <v>122</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>2018</v>
+      </c>
+      <c r="D106">
+        <v>500</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>2018</v>
+      </c>
+      <c r="D107">
+        <v>525</v>
+      </c>
+      <c r="E107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" t="s">
+        <v>66</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s">
+        <v>67</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>2018</v>
+      </c>
+      <c r="D108">
+        <v>500</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3</v>
+      </c>
+      <c r="H108" t="s">
+        <v>92</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s">
+        <v>93</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>2017</v>
+      </c>
+      <c r="D109">
+        <v>500</v>
+      </c>
+      <c r="E109" t="s">
+        <v>99</v>
+      </c>
+      <c r="F109" t="s">
+        <v>66</v>
+      </c>
+      <c r="H109" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>100</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110">
+        <v>2018</v>
+      </c>
+      <c r="D110">
+        <v>1075</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>107</v>
+      </c>
+      <c r="G110" t="s">
+        <v>108</v>
+      </c>
+      <c r="H110" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s">
+        <v>109</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>2018</v>
+      </c>
+      <c r="D111">
+        <v>290</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I111" t="s">
+        <v>5</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112">
+        <v>2018</v>
+      </c>
+      <c r="D112">
+        <v>900</v>
+      </c>
+      <c r="E112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" t="s">
+        <v>129</v>
+      </c>
+      <c r="I112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113">
+        <v>2014</v>
+      </c>
+      <c r="D113">
+        <v>400</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>92</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114">
+        <v>2017</v>
+      </c>
+      <c r="D114">
+        <v>600</v>
+      </c>
+      <c r="E114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" t="s">
+        <v>95</v>
+      </c>
+      <c r="I114" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115">
+        <v>2018</v>
+      </c>
+      <c r="D115">
+        <v>170</v>
+      </c>
+      <c r="E115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" t="s">
+        <v>134</v>
+      </c>
+      <c r="I115" t="s">
+        <v>5</v>
+      </c>
+      <c r="J115" t="s">
+        <v>137</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116">
+        <v>2018</v>
+      </c>
+      <c r="D116">
+        <v>170</v>
+      </c>
+      <c r="E116" t="s">
+        <v>209</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>98</v>
+      </c>
+      <c r="I116" t="s">
+        <v>5</v>
+      </c>
+      <c r="J116" t="s">
+        <v>210</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>277</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K55" xr:uid="{6D52B905-5126-4B14-A214-0ECE4CB8D372}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K116">
+      <sortCondition ref="A1:A55"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>